--- a/try3/sppFilter/assSppMore.xlsx
+++ b/try3/sppFilter/assSppMore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickg/Documents/jobs/nmfs/sppComp/try3/sppFilter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4112BB00-4170-D14D-9E19-0CF6DE9E6975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8F1C6D-183C-734D-983F-72E33569AC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="1220" windowWidth="21000" windowHeight="31980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fmpSpp" sheetId="1" r:id="rId1"/>
@@ -6608,7 +6608,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6703,10 +6703,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C7" t="s">
         <v>516</v>
@@ -6715,7 +6715,7 @@
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
         <v>109</v>
